--- a/.pic/Labs/lab_12_periph/fig_02.xlsx
+++ b/.pic/Labs/lab_12_periph/fig_02.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0993c5fc581fc8d/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voult\Desktop\APS-reborn\.pic\Labs\lab_12_periph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{5F5236C1-BDA7-47AA-8797-D1ABFF7EDE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05159813-6371-4AC5-B648-C2F396F33FA3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C51F1F3-289C-4BFD-8AC3-5AC8706FA83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1965" windowWidth="28800" windowHeight="15345" xr2:uid="{7D37F479-6E5F-452D-B8BD-2C58B0C24FDE}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="28800" windowHeight="18090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
   <si>
     <t>Переключатели</t>
   </si>
@@ -180,13 +180,58 @@
   </si>
   <si>
     <t>(R) Сигнал busy</t>
+  </si>
+  <si>
+    <t>не используются</t>
+  </si>
+  <si>
+    <t>Видеоадаптер</t>
+  </si>
+  <si>
+    <t>0x07</t>
+  </si>
+  <si>
+    <t>0x00000000</t>
+  </si>
+  <si>
+    <t>0x0000095F</t>
+  </si>
+  <si>
+    <t>0x00001000</t>
+  </si>
+  <si>
+    <t>0x0000195F</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFF</t>
+  </si>
+  <si>
+    <t>(RW) диапазон адресов отображаемых символов (char_map)</t>
+  </si>
+  <si>
+    <t>(RW) диапазон адресов цветовой схемы (color_map)</t>
+  </si>
+  <si>
+    <t>0x00010000</t>
+  </si>
+  <si>
+    <t>0x00010FFF</t>
+  </si>
+  <si>
+    <t>(RW) диапазон адресов шрифта для каждого ascii-кода символа</t>
+  </si>
+  <si>
+    <t>См. рис. 4</t>
+  </si>
+  <si>
+    <t>0x00011000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,20 +247,104 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -238,13 +367,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -255,44 +382,199 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% — акцент3" xfId="1" builtinId="38"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD1E3F3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -600,150 +882,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5090A7-0E20-466F-9C6F-6D67C9E776A2}">
-  <dimension ref="A1:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:G16"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="2" t="s">
+      <c r="H2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="H3" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="H4" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="B6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -755,41 +1054,43 @@
       <c r="D7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="H7" s="30"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="H8" s="30"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -801,41 +1102,43 @@
       <c r="D9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="H9" s="30"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="B10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="F10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -847,7 +1150,7 @@
       <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -856,164 +1159,251 @@
       <c r="G11" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="H11" s="30"/>
+    </row>
+    <row r="12" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="B12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="F12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="30"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="B14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="B16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="37"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="37"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="38"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="38"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="29"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="H4:H16"/>
+    <mergeCell ref="B1:H1"/>
     <mergeCell ref="A15:G15"/>
-    <mergeCell ref="B1:G1"/>
     <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.pic/Labs/lab_12_periph/fig_02.xlsx
+++ b/.pic/Labs/lab_12_periph/fig_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voult\Desktop\APS-reborn\.pic\Labs\lab_12_periph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C51F1F3-289C-4BFD-8AC3-5AC8706FA83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10456CFA-C8A8-47B0-A63D-19FF08713291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="28800" windowHeight="18090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="28800" windowHeight="18090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -212,9 +212,6 @@
     <t>(RW) диапазон адресов цветовой схемы (color_map)</t>
   </si>
   <si>
-    <t>0x00010000</t>
-  </si>
-  <si>
     <t>0x00010FFF</t>
   </si>
   <si>
@@ -224,7 +221,10 @@
     <t>См. рис. 4</t>
   </si>
   <si>
-    <t>0x00011000</t>
+    <t>0x00002000</t>
+  </si>
+  <si>
+    <t>0x00003000</t>
   </si>
 </sst>
 </file>
@@ -886,7 +886,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,7 +990,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1356,10 +1356,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1370,7 +1370,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="38"/>
     </row>

--- a/.pic/Labs/lab_12_periph/fig_02.xlsx
+++ b/.pic/Labs/lab_12_periph/fig_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voult\Desktop\APS-reborn\.pic\Labs\lab_12_periph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10456CFA-C8A8-47B0-A63D-19FF08713291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D9DD45-DEB8-41A8-B997-E755E61C99B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="28800" windowHeight="18090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27240" yWindow="285" windowWidth="17400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -212,9 +212,6 @@
     <t>(RW) диапазон адресов цветовой схемы (color_map)</t>
   </si>
   <si>
-    <t>0x00010FFF</t>
-  </si>
-  <si>
     <t>(RW) диапазон адресов шрифта для каждого ascii-кода символа</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>0x00003000</t>
+  </si>
+  <si>
+    <t>0x00002FFF</t>
   </si>
 </sst>
 </file>
@@ -885,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,7 +990,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1356,10 +1356,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1370,13 +1370,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B28" s="38"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>50</v>
